--- a/LOTOlog.xlsx
+++ b/LOTOlog.xlsx
@@ -1,19 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OTHER_PROJECT\LOTO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2F1C06-CDFB-4511-AC2A-AD6930812B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="10785" yWindow="2565" windowWidth="25200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>reden</t>
+  </si>
+  <si>
+    <t>datum_weg</t>
+  </si>
+  <si>
+    <t>Name_weg</t>
+  </si>
+  <si>
+    <t>Spanning</t>
+  </si>
+  <si>
+    <t>C.Anft</t>
+  </si>
+  <si>
+    <t>HV01-04</t>
+  </si>
+  <si>
+    <t>voorbereiding inschakelen</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>HV02-03</t>
+  </si>
+  <si>
+    <t>HV03-03</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +105,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,171 +437,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nr</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Datum</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="D1" t="str">
-        <v>object</v>
-      </c>
-      <c r="E1" t="str">
-        <v>reden</v>
-      </c>
-      <c r="F1" t="str">
-        <v>datum_weg</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Name_weg</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Spanning</v>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>43986</v>
       </c>
-      <c r="C2" t="str">
-        <v>C.Anft</v>
-      </c>
-      <c r="D2" t="str">
-        <v>HV01-04</v>
-      </c>
-      <c r="E2" t="str">
-        <v>voorbereiding inschakelen</v>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>44008</v>
       </c>
-      <c r="G2" t="str">
-        <v>C.Anft</v>
-      </c>
-      <c r="H2" t="str">
-        <v>ja</v>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>43986</v>
       </c>
-      <c r="C3" t="str">
-        <v>C.Anft</v>
-      </c>
-      <c r="D3" t="str">
-        <v>HV02-03</v>
-      </c>
-      <c r="E3" t="str">
-        <v>voorbereiding inschakelen</v>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
       <c r="F3">
         <v>44008</v>
       </c>
-      <c r="G3" t="str">
-        <v>C.Anft</v>
-      </c>
-      <c r="H3" t="str">
-        <v>ja</v>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>43986</v>
       </c>
-      <c r="C4" t="str">
-        <v>C.Anft</v>
-      </c>
-      <c r="D4" t="str">
-        <v>HV03-03</v>
-      </c>
-      <c r="E4" t="str">
-        <v>voorbereiding inschakelen</v>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
       <c r="F4">
         <v>44008</v>
       </c>
-      <c r="G4" t="str">
-        <v>C.Anft</v>
-      </c>
-      <c r="H4" t="str">
-        <v>ja</v>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>07/07/2020</v>
-      </c>
-      <c r="C5" t="str">
-        <v>testName</v>
-      </c>
-      <c r="D5" t="str">
-        <v>testObject</v>
-      </c>
-      <c r="E5" t="str">
-        <v>testReden</v>
-      </c>
-      <c r="F5" t="str">
-        <v>2020-07-08</v>
-      </c>
-      <c r="G5" t="str">
-        <v>42342</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Ja</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>07/07/2020</v>
-      </c>
-      <c r="C6" t="str">
-        <v>test2</v>
-      </c>
-      <c r="D6" t="str">
-        <v>test2</v>
-      </c>
-      <c r="E6" t="str">
-        <v>testR</v>
-      </c>
-      <c r="F6" t="str">
-        <v>2020-07-08</v>
-      </c>
-      <c r="G6" t="str">
-        <v>213</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Nee</v>
-      </c>
-    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError sqref="A1:H4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/LOTOlog.xlsx
+++ b/LOTOlog.xlsx
@@ -1,74 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OTHER_PROJECT\LOTO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2F1C06-CDFB-4511-AC2A-AD6930812B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="10785" yWindow="2565" windowWidth="25200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
-  <si>
-    <t>Nr</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>reden</t>
-  </si>
-  <si>
-    <t>datum_weg</t>
-  </si>
-  <si>
-    <t>Name_weg</t>
-  </si>
-  <si>
-    <t>Spanning</t>
-  </si>
-  <si>
-    <t>C.Anft</t>
-  </si>
-  <si>
-    <t>HV01-04</t>
-  </si>
-  <si>
-    <t>voorbereiding inschakelen</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>HV02-03</t>
-  </si>
-  <si>
-    <t>HV03-03</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,14 +50,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -437,125 +374,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Nr</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Datum</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Naam</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Object</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Reden</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Datum weg</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Naam weg</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Spanning</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="str">
+        <v>04/06/2020</v>
+      </c>
+      <c r="C2" t="str">
+        <v>C. Anft</v>
+      </c>
+      <c r="D2" t="str">
+        <v>HV03-03</v>
+      </c>
+      <c r="E2" t="str">
+        <v>voorbereiding inschakelen</v>
+      </c>
+      <c r="F2" t="str">
+        <v>26/06/2020</v>
+      </c>
+      <c r="G2" t="str">
+        <v>C. Anft</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="str">
+        <v>04/06/2020</v>
+      </c>
+      <c r="C3" t="str">
+        <v>C. Anft</v>
+      </c>
+      <c r="D3" t="str">
+        <v>HV01-04</v>
+      </c>
+      <c r="E3" t="str">
+        <v>voorbereiding inschakelen</v>
+      </c>
+      <c r="F3" t="str">
+        <v>26/06/2020</v>
+      </c>
+      <c r="G3" t="str">
+        <v>C. Anft</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="B4" t="str">
+        <v>04/06/2020</v>
+      </c>
+      <c r="C4" t="str">
+        <v>C. Anft</v>
+      </c>
+      <c r="D4" t="str">
+        <v>HV02-03</v>
+      </c>
+      <c r="E4" t="str">
+        <v>voorbereiding inschakelen</v>
+      </c>
+      <c r="F4" t="str">
+        <v>26/06/2020</v>
+      </c>
+      <c r="G4" t="str">
+        <v>C. Anft</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Ja</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>43986</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>44008</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>43986</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>44008</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>43986</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>44008</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H4" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/LOTOlog.xlsx
+++ b/LOTOlog.xlsx
@@ -1,36 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Blad1" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="49">
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Reden</t>
+  </si>
+  <si>
+    <t>Datum Weg</t>
+  </si>
+  <si>
+    <t>Naam Weg</t>
+  </si>
+  <si>
+    <t>Spanning</t>
+  </si>
+  <si>
+    <t>04/06/2020</t>
+  </si>
+  <si>
+    <t>C. Anft</t>
+  </si>
+  <si>
+    <t>HV03-03</t>
+  </si>
+  <si>
+    <t>voorbereiding inschakelen</t>
+  </si>
+  <si>
+    <t>26/06/2020</t>
+  </si>
+  <si>
+    <t>HV01-04</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>HV02-03</t>
+  </si>
+  <si>
+    <t>Christian Anft</t>
+  </si>
+  <si>
+    <t>HV01-01</t>
+  </si>
+  <si>
+    <t>voorbereiden inschakelen</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>C.Anft</t>
+  </si>
+  <si>
+    <t>HV01-02</t>
+  </si>
+  <si>
+    <t>HV01-02 KS</t>
+  </si>
+  <si>
+    <t>HV01-07</t>
+  </si>
+  <si>
+    <t>HV01-08</t>
+  </si>
+  <si>
+    <t>HV02-02</t>
+  </si>
+  <si>
+    <t>HV02-03 KS</t>
+  </si>
+  <si>
+    <t>HV02-06</t>
+  </si>
+  <si>
+    <t>HV03-01</t>
+  </si>
+  <si>
+    <t>HV03-06</t>
+  </si>
+  <si>
+    <t>HV01-06 Gr7 Bakkenmagazijn</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>HV01-05 Gr.4 Reserve HF</t>
+  </si>
+  <si>
+    <t>HV01-05 Gr.6 Reserve</t>
+  </si>
+  <si>
+    <t>HV01-06 Gr.8 Reserve</t>
+  </si>
+  <si>
+    <t>HV01-06 Gr.9 Reserve</t>
+  </si>
+  <si>
+    <t>HV02-04 Gr.03 Reserve HF</t>
+  </si>
+  <si>
+    <t>HV02-04 Gr.04 Reserve HF</t>
+  </si>
+  <si>
+    <t>HV02-04 Gr.06 Reserve</t>
+  </si>
+  <si>
+    <t>HV02-04 Gr.10 Kraan 7</t>
+  </si>
+  <si>
+    <t>HV01-05 Gr.5 Reserve HF</t>
+  </si>
+  <si>
+    <t>HV02-05 Gr.07 Reserve</t>
+  </si>
+  <si>
+    <t>HV02-05 Gr.8 Reserve</t>
+  </si>
+  <si>
+    <t>HV02-05 Gr.09 Reserve</t>
+  </si>
+  <si>
+    <t>HV02-05 Gr.11Kraan K8</t>
+  </si>
+  <si>
+    <t>HV02-04 Gr.15</t>
+  </si>
+  <si>
+    <t>HV03-04 Gr.3 Reserve HF</t>
+  </si>
+  <si>
+    <t>HV03-04 Gr.04 Reserve HF</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfffb00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF17ab00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -38,18 +202,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,119 +581,822 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" customWidth="1"/>
+    <col min="6" max="8" width="15" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nr</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Datum</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Naam</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Object</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Reden</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Datum weg</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Naam weg</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Spanning</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>04/06/2020</v>
-      </c>
-      <c r="C2" t="str">
-        <v>C. Anft</v>
-      </c>
-      <c r="D2" t="str">
-        <v>HV03-03</v>
-      </c>
-      <c r="E2" t="str">
-        <v>voorbereiding inschakelen</v>
-      </c>
-      <c r="F2" t="str">
-        <v>26/06/2020</v>
-      </c>
-      <c r="G2" t="str">
-        <v>C. Anft</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Ja</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>04/06/2020</v>
-      </c>
-      <c r="C3" t="str">
-        <v>C. Anft</v>
-      </c>
-      <c r="D3" t="str">
-        <v>HV01-04</v>
-      </c>
-      <c r="E3" t="str">
-        <v>voorbereiding inschakelen</v>
-      </c>
-      <c r="F3" t="str">
-        <v>26/06/2020</v>
-      </c>
-      <c r="G3" t="str">
-        <v>C. Anft</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Ja</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>04/06/2020</v>
-      </c>
-      <c r="C4" t="str">
-        <v>C. Anft</v>
-      </c>
-      <c r="D4" t="str">
-        <v>HV02-03</v>
-      </c>
-      <c r="E4" t="str">
-        <v>voorbereiding inschakelen</v>
-      </c>
-      <c r="F4" t="str">
-        <v>26/06/2020</v>
-      </c>
-      <c r="G4" t="str">
-        <v>C. Anft</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Ja</v>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>